--- a/XBRLParsing/Extract_Fields_485PBOS.xlsx
+++ b/XBRLParsing/Extract_Fields_485PBOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files2020_Dev\ByProject\Open15c\XBRLParsing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4AC5C1-280D-46F3-89EB-90D595260F8C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED73443-1C9E-4432-AEE4-D399A7DFA2FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8630" yWindow="4580" windowWidth="26270" windowHeight="15510" xr2:uid="{DFCC9A26-7067-4E82-8451-4697F4FAC13A}"/>
+    <workbookView xWindow="920" yWindow="120" windowWidth="24390" windowHeight="11690" xr2:uid="{DFCC9A26-7067-4E82-8451-4697F4FAC13A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -865,7 +865,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
